--- a/prevention/StructureDefinition-klgateway-119-encounter.xlsx
+++ b/prevention/StructureDefinition-klgateway-119-encounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3644" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3643" uniqueCount="573">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T10:04:53+02:00</t>
+    <t>2024-06-19T12:57:23+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -693,13 +693,7 @@
     <t>Concepts representing classification of patient encounter such as ambulatory (outpatient), inpatient, emergency, home health or others due to local variations.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Classification of the encounter.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode</t>
+    <t>http://fhir.kl.dk/prevention/ValueSet/EncounterClassCodes</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=LIST].code</t>
@@ -857,6 +851,15 @@
   </si>
   <si>
     <t>inpatient | outpatient | ambulatory | emergency +.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Classification of the encounter.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode</t>
   </si>
   <si>
     <t>Encounter.classHistory.period</t>
@@ -4802,13 +4805,11 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="Y24" s="2"/>
+      <c r="Z24" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -4844,21 +4845,21 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>222</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4967,10 +4968,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5081,10 +5082,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5110,16 +5111,16 @@
         <v>99</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -5168,7 +5169,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -5186,21 +5187,21 @@
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5226,13 +5227,13 @@
         <v>145</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5282,7 +5283,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -5300,21 +5301,21 @@
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5340,14 +5341,14 @@
         <v>105</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -5396,7 +5397,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -5414,21 +5415,21 @@
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5439,7 +5440,7 @@
         <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -5454,14 +5455,14 @@
         <v>145</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5510,7 +5511,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -5528,21 +5529,21 @@
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5565,19 +5566,19 @@
         <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -5626,7 +5627,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5644,21 +5645,21 @@
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5684,10 +5685,10 @@
         <v>194</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5738,7 +5739,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5767,10 +5768,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5879,10 +5880,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5993,10 +5994,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6109,10 +6110,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6138,10 +6139,10 @@
         <v>214</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6168,13 +6169,13 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>217</v>
+        <v>270</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>218</v>
+        <v>271</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>219</v>
+        <v>272</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
@@ -6192,7 +6193,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>85</v>
@@ -6221,10 +6222,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6250,10 +6251,10 @@
         <v>210</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6304,7 +6305,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>85</v>
@@ -6333,10 +6334,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6359,16 +6360,16 @@
         <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6394,13 +6395,13 @@
         <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>77</v>
@@ -6418,7 +6419,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -6433,24 +6434,24 @@
         <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6559,10 +6560,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6673,10 +6674,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6702,16 +6703,16 @@
         <v>214</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6760,7 +6761,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6778,21 +6779,21 @@
         <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6901,10 +6902,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7015,10 +7016,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7044,16 +7045,16 @@
         <v>99</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -7102,7 +7103,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -7120,21 +7121,21 @@
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7160,13 +7161,13 @@
         <v>145</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7216,7 +7217,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -7234,21 +7235,21 @@
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7274,14 +7275,14 @@
         <v>105</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -7330,7 +7331,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -7348,21 +7349,21 @@
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7388,14 +7389,14 @@
         <v>145</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -7444,7 +7445,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -7462,21 +7463,21 @@
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7499,19 +7500,19 @@
         <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7560,7 +7561,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7578,21 +7579,21 @@
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7618,16 +7619,16 @@
         <v>145</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7676,7 +7677,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7694,21 +7695,21 @@
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7731,13 +7732,13 @@
         <v>86</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7764,13 +7765,13 @@
         <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>77</v>
@@ -7788,7 +7789,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7803,7 +7804,7 @@
         <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>149</v>
@@ -7812,15 +7813,15 @@
         <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7843,13 +7844,13 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7876,13 +7877,13 @@
         <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>77</v>
@@ -7900,7 +7901,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7918,25 +7919,25 @@
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7955,16 +7956,16 @@
         <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8014,7 +8015,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -8029,24 +8030,24 @@
         <v>97</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8069,13 +8070,13 @@
         <v>86</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8126,7 +8127,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -8141,28 +8142,28 @@
         <v>97</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>149</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8181,13 +8182,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8238,7 +8239,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -8253,10 +8254,10 @@
         <v>97</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -8267,10 +8268,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8296,10 +8297,10 @@
         <v>194</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8350,7 +8351,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -8365,24 +8366,24 @@
         <v>97</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8491,10 +8492,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8605,10 +8606,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8721,10 +8722,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8747,16 +8748,16 @@
         <v>86</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8782,13 +8783,13 @@
         <v>77</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>217</v>
+        <v>270</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>77</v>
@@ -8806,7 +8807,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8821,24 +8822,24 @@
         <v>97</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8864,10 +8865,10 @@
         <v>210</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8918,7 +8919,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8936,21 +8937,21 @@
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8973,13 +8974,13 @@
         <v>86</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9030,7 +9031,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -9045,24 +9046,24 @@
         <v>97</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9085,13 +9086,13 @@
         <v>86</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9142,7 +9143,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -9157,24 +9158,24 @@
         <v>97</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9200,13 +9201,13 @@
         <v>210</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9256,7 +9257,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -9271,24 +9272,24 @@
         <v>97</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9397,10 +9398,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9511,10 +9512,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9537,16 +9538,16 @@
         <v>86</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9596,7 +9597,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -9605,7 +9606,7 @@
         <v>85</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>97</v>
@@ -9614,21 +9615,21 @@
         <v>77</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9651,23 +9652,23 @@
         <v>86</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q67" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="R67" t="s" s="2">
         <v>77</v>
@@ -9712,7 +9713,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -9721,7 +9722,7 @@
         <v>85</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>97</v>
@@ -9730,21 +9731,21 @@
         <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9767,16 +9768,16 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9826,7 +9827,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -9841,28 +9842,28 @@
         <v>97</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9881,16 +9882,16 @@
         <v>86</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9919,10 +9920,10 @@
         <v>109</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>77</v>
@@ -9940,7 +9941,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -9955,28 +9956,28 @@
         <v>97</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -9995,16 +9996,16 @@
         <v>86</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10054,7 +10055,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
@@ -10069,24 +10070,24 @@
         <v>97</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10112,10 +10113,10 @@
         <v>194</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10166,7 +10167,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
@@ -10184,7 +10185,7 @@
         <v>77</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>77</v>
@@ -10195,10 +10196,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10307,10 +10308,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10421,10 +10422,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10537,14 +10538,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10563,16 +10564,16 @@
         <v>86</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10622,7 +10623,7 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>85</v>
@@ -10637,24 +10638,24 @@
         <v>97</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10677,13 +10678,13 @@
         <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10713,10 +10714,10 @@
         <v>109</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>77</v>
@@ -10734,7 +10735,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
@@ -10763,10 +10764,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10789,13 +10790,13 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10846,7 +10847,7 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>75</v>
@@ -10864,7 +10865,7 @@
         <v>77</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>77</v>
@@ -10875,10 +10876,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10901,16 +10902,16 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10960,7 +10961,7 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
@@ -10978,7 +10979,7 @@
         <v>77</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>77</v>
@@ -10989,10 +10990,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11018,13 +11019,13 @@
         <v>194</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11074,7 +11075,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>75</v>
@@ -11092,7 +11093,7 @@
         <v>77</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>77</v>
@@ -11103,10 +11104,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11215,10 +11216,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11329,10 +11330,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11445,10 +11446,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11474,10 +11475,10 @@
         <v>175</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11528,7 +11529,7 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>75</v>
@@ -11552,15 +11553,15 @@
         <v>77</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11583,13 +11584,13 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11640,7 +11641,7 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>75</v>
@@ -11658,7 +11659,7 @@
         <v>77</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>77</v>
@@ -11669,10 +11670,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11695,13 +11696,13 @@
         <v>77</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11731,10 +11732,10 @@
         <v>109</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>77</v>
@@ -11752,7 +11753,7 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>75</v>
@@ -11770,21 +11771,21 @@
         <v>77</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11807,13 +11808,13 @@
         <v>77</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11840,13 +11841,13 @@
         <v>77</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>77</v>
@@ -11864,7 +11865,7 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>75</v>
@@ -11888,15 +11889,15 @@
         <v>77</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11919,19 +11920,19 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>77</v>
@@ -11956,13 +11957,13 @@
         <v>77</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>77</v>
@@ -11980,7 +11981,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>75</v>
@@ -11998,21 +11999,21 @@
         <v>77</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12035,13 +12036,13 @@
         <v>77</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12071,10 +12072,10 @@
         <v>109</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>77</v>
@@ -12092,7 +12093,7 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>75</v>
@@ -12110,21 +12111,21 @@
         <v>77</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12147,13 +12148,13 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12183,10 +12184,10 @@
         <v>109</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>77</v>
@@ -12204,7 +12205,7 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>75</v>
@@ -12222,21 +12223,21 @@
         <v>77</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12259,13 +12260,13 @@
         <v>77</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12316,7 +12317,7 @@
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>75</v>
@@ -12334,21 +12335,21 @@
         <v>77</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12371,13 +12372,13 @@
         <v>77</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12404,13 +12405,13 @@
         <v>77</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>77</v>
@@ -12428,7 +12429,7 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>75</v>
@@ -12446,21 +12447,21 @@
         <v>77</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12486,13 +12487,13 @@
         <v>194</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -12542,7 +12543,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>75</v>
@@ -12560,7 +12561,7 @@
         <v>77</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>77</v>
@@ -12571,10 +12572,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12683,10 +12684,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12797,10 +12798,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12913,10 +12914,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12939,13 +12940,13 @@
         <v>77</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -12996,7 +12997,7 @@
         <v>77</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>85</v>
@@ -13011,24 +13012,24 @@
         <v>97</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13054,13 +13055,13 @@
         <v>105</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -13089,10 +13090,10 @@
         <v>186</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>77</v>
@@ -13110,7 +13111,7 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>75</v>
@@ -13128,7 +13129,7 @@
         <v>77</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>77</v>
@@ -13139,10 +13140,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13165,16 +13166,16 @@
         <v>77</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -13200,13 +13201,13 @@
         <v>77</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>77</v>
@@ -13224,7 +13225,7 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>75</v>
@@ -13253,10 +13254,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13282,10 +13283,10 @@
         <v>210</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -13336,7 +13337,7 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>75</v>
@@ -13354,7 +13355,7 @@
         <v>77</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>77</v>
@@ -13365,10 +13366,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13391,13 +13392,13 @@
         <v>77</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13448,7 +13449,7 @@
         <v>77</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>75</v>
@@ -13463,24 +13464,24 @@
         <v>97</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13503,16 +13504,16 @@
         <v>77</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -13562,7 +13563,7 @@
         <v>77</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>75</v>
@@ -13577,10 +13578,10 @@
         <v>97</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>77</v>

--- a/prevention/StructureDefinition-klgateway-119-encounter.xlsx
+++ b/prevention/StructureDefinition-klgateway-119-encounter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T12:57:23+02:00</t>
+    <t>2024-06-21T13:40:09+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/prevention/StructureDefinition-klgateway-119-encounter.xlsx
+++ b/prevention/StructureDefinition-klgateway-119-encounter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T13:40:09+02:00</t>
+    <t>2024-06-19T12:57:23+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/prevention/StructureDefinition-klgateway-119-encounter.xlsx
+++ b/prevention/StructureDefinition-klgateway-119-encounter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T12:57:23+02:00</t>
+    <t>2024-06-24T12:38:57+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
